--- a/biology/Histoire de la zoologie et de la botanique/Société_Copernic_des_naturalistes_polonais/Société_Copernic_des_naturalistes_polonais.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_Copernic_des_naturalistes_polonais/Société_Copernic_des_naturalistes_polonais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_Copernic_des_naturalistes_polonais</t>
+          <t>Société_Copernic_des_naturalistes_polonais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  Société Copernic des naturalistes polonais (polonais : Polskie Towarzystwo Przyrodników im. Kopernika), la plus ancienne association de naturalistes polonais, est fondée à Lviv le  17 janvier 1875.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_Copernic_des_naturalistes_polonais</t>
+          <t>Société_Copernic_des_naturalistes_polonais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société Copernic des naturalistes polonais est fondée à Lviv en 1875[1]. Elle publie les magazines Kosmos dès 1876 et Wszechświat dès 1882[2].
-Son bureau principal est à Cracovie et des succursales sont présentes à Cracovie, Łódź, Wrocław, Szczecin, Lublin et Rzeszów[2],[3].
-Trois sections, Spéléologie, Section d'enseignement de la biologie et Section des sciences humaines (Section de biologie humaine) composent cette société[4],[2],[5].
-La société organise les Jeux olympiques de la biologie pour les élèves du secondaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société Copernic des naturalistes polonais est fondée à Lviv en 1875. Elle publie les magazines Kosmos dès 1876 et Wszechświat dès 1882.
+Son bureau principal est à Cracovie et des succursales sont présentes à Cracovie, Łódź, Wrocław, Szczecin, Lublin et Rzeszów,.
+Trois sections, Spéléologie, Section d'enseignement de la biologie et Section des sciences humaines (Section de biologie humaine) composent cette société.
+La société organise les Jeux olympiques de la biologie pour les élèves du secondaire.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_Copernic_des_naturalistes_polonais</t>
+          <t>Société_Copernic_des_naturalistes_polonais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +559,17 @@
           <t>Membres célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feliks Kreutz[6]
-Marceli Nencki[7]
-Benedykt Dybowski[1]
-Marian Raciborski[8]
-Marian Smoluchowski[8]
-Jan Czekanowski[1]
-Hanna Czeczott[9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feliks Kreutz
+Marceli Nencki
+Benedykt Dybowski
+Marian Raciborski
+Marian Smoluchowski
+Jan Czekanowski
+Hanna Czeczott
 			Feliks Kreutz
 			Marceli Nencki
 			Benedykt Dybowski
